--- a/ftest/fm49/Min.Max.Ded.Calculation.Example.xlsx
+++ b/ftest/fm49/Min.Max.Ded.Calculation.Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Joh\ktest_new2\ftest\data\fm49\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\ktest\ftest\fm49\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FA661-328C-493F-891F-130C8E2EF6B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A894CDC3-013B-4941-8743-62DF4D1F02A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75D5E7CF-EFFD-4508-9A5B-71E86028FB54}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +578,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -594,21 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +934,7 @@
   <dimension ref="B1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E22"/>
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +959,7 @@
     <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="str">
         <f>"Scenario: "&amp;C11</f>
-        <v>Scenario: Total exposure</v>
+        <v>Scenario: 2 Slightly over limit at min ded level</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -998,11 +1004,11 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="C11" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="16" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="K13" s="46">
+      <c r="K13" s="39">
         <v>-3</v>
       </c>
       <c r="L13" t="s">
@@ -1101,15 +1107,15 @@
       </c>
       <c r="C15" s="6">
         <f>VLOOKUP($C$11,$L$13:$O$21,2,FALSE)</f>
-        <v>1</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="D15" s="6">
         <f>VLOOKUP($C$11,$L$13:$O$21,3,FALSE)</f>
-        <v>1</v>
+        <v>0.10075000000000001</v>
       </c>
       <c r="E15" s="6">
         <f>VLOOKUP($C$11,$L$13:$O$21,4,FALSE)</f>
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F15" s="1"/>
       <c r="K15" s="21">
@@ -1216,10 +1222,10 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="47">
         <v>1000</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
       <c r="K19" s="21">
@@ -1266,11 +1272,11 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="47">
         <v>5000</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="1"/>
       <c r="K21" s="32">
         <v>8</v>
@@ -1292,11 +1298,11 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="47">
         <v>1000000</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
@@ -1316,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
@@ -1340,19 +1346,19 @@
       </c>
       <c r="C27" s="5">
         <f>C14*C15</f>
-        <v>1000000</v>
+        <v>200500</v>
       </c>
       <c r="D27" s="5">
         <f>D14*D15</f>
-        <v>2000000</v>
+        <v>201500</v>
       </c>
       <c r="E27" s="5">
         <f>E14*E15</f>
-        <v>3000000</v>
+        <v>201000</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ref="F27:F32" si="0">SUM(C27:E27)</f>
-        <v>6000000</v>
+        <v>603000</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
@@ -1361,19 +1367,19 @@
       </c>
       <c r="C28" s="5">
         <f>MAX(C27-C16,0)</f>
-        <v>999000</v>
+        <v>199500</v>
       </c>
       <c r="D28" s="5">
         <f>MAX(D27-D16,0)</f>
-        <v>1999000</v>
+        <v>200500</v>
       </c>
       <c r="E28" s="5">
         <f>MAX(E27-E16,0)</f>
-        <v>2999000</v>
+        <v>200000</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>5997000</v>
+        <v>600000</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1406,7 +1412,7 @@
       </c>
       <c r="C30" s="15">
         <f>MIN(C28,C17)</f>
-        <v>200000</v>
+        <v>199500</v>
       </c>
       <c r="D30" s="15">
         <f>MIN(D28,D17)</f>
@@ -1418,7 +1424,7 @@
       </c>
       <c r="F30" s="15">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>599500</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
@@ -1447,20 +1453,20 @@
         <v>21</v>
       </c>
       <c r="C32" s="12">
-        <f>MAX(-(C28-C31),0)</f>
+        <f>MIN(C29,C27-C30,C17-C30)</f>
+        <v>500</v>
+      </c>
+      <c r="D32" s="38">
+        <f t="shared" ref="D32:E32" si="1">MIN(D29,D27-D30,D17-D30)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="14">
-        <f t="shared" ref="D32:E32" si="1">MAX(-(D28-D31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="E32" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I32" s="10"/>
     </row>
@@ -1470,19 +1476,19 @@
       </c>
       <c r="C33" s="5">
         <f>MAX(C28-C31,0)</f>
-        <v>799000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" ref="D33:E33" si="2">MAX(D28-D31,0)</f>
-        <v>1799000</v>
+        <v>500</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="2"/>
-        <v>2799000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" ref="F33" si="3">SUM(C33:E33)</f>
-        <v>5397000</v>
+        <v>500</v>
       </c>
       <c r="I33" s="10"/>
     </row>
@@ -1490,18 +1496,18 @@
       <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="42">
         <f>SUM(C30:D30)</f>
-        <v>400000</v>
-      </c>
-      <c r="D34" s="44"/>
+        <v>399500</v>
+      </c>
+      <c r="D34" s="42"/>
       <c r="E34" s="15">
         <f>E30</f>
         <v>200000</v>
       </c>
       <c r="F34" s="15">
         <f>C34</f>
-        <v>400000</v>
+        <v>399500</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="10"/>
@@ -1511,18 +1517,18 @@
       <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <f>SUM(C32:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="43"/>
+        <v>500</v>
+      </c>
+      <c r="D35" s="41"/>
       <c r="E35" s="5">
         <f>E32</f>
         <v>0</v>
       </c>
       <c r="F35" s="5">
         <f>C35</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -1533,28 +1539,28 @@
       <c r="B36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="41">
         <f>SUM(C33:D33)</f>
-        <v>2598000</v>
-      </c>
-      <c r="D36" s="43"/>
+        <v>500</v>
+      </c>
+      <c r="D36" s="41"/>
       <c r="E36" s="12">
         <v>0</v>
       </c>
       <c r="F36" s="12">
         <f>C36</f>
-        <v>2598000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="43">
         <f>SUM(C29:D29)</f>
         <v>2000</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="10"/>
@@ -1563,11 +1569,11 @@
       <c r="B38" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="41">
         <f>C19</f>
         <v>1000</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="5"/>
       <c r="G38" s="10"/>
       <c r="I38" s="10"/>
@@ -1576,11 +1582,11 @@
       <c r="B39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="42">
         <f>MAX(x.loss+MIN(x.effective-deduct3,x.under),0)</f>
         <v>400000</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="8">
         <f>E34</f>
         <v>200000</v>
@@ -1600,11 +1606,11 @@
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="41">
         <f>MAX(x.under-(loss-x.loss),0)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="5">
         <f>E35</f>
         <v>0</v>
@@ -1619,18 +1625,18 @@
       <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="41">
         <f>MAX(x.over+(x.loss+x.effective-deduct3)-loss,0)</f>
-        <v>2599000</v>
-      </c>
-      <c r="D41" s="43"/>
+        <v>1000</v>
+      </c>
+      <c r="D41" s="41"/>
       <c r="E41" s="5">
         <f>E33</f>
-        <v>2799000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="10">
         <f>SUM(C41:E41)</f>
-        <v>5398000</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="5"/>
     </row>
@@ -1672,7 +1678,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12">
         <f>F41</f>
-        <v>5398000</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="10"/>
     </row>
@@ -1713,13 +1719,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="F47" s="47">
+      <c r="F47" s="40">
         <f>IF(y.under=0,uloss,oloss)</f>
-        <v>600000</v>
+        <v>598000</v>
       </c>
       <c r="G47" s="19">
         <f>MAX(y.loss+MIN(y.over+y.effective-deduct2,0),0)</f>
-        <v>600000</v>
+        <v>598000</v>
       </c>
       <c r="H47" s="19">
         <f>MAX(y.loss+MIN(y.effective-deduct2,y.under),0)</f>
@@ -1738,11 +1744,11 @@
       <c r="E48" s="12"/>
       <c r="F48" s="14">
         <f>IF(y.over&gt;0,l.under,H48)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="18">
         <f>MAX(y.under-(uloss-y.loss),0)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="20">
         <f>MAX(y.under-(H47-y.loss),0)</f>
@@ -1758,15 +1764,15 @@
       <c r="E49" s="5"/>
       <c r="F49" s="14">
         <f>IF(y.over&gt;0,l.over,H49)</f>
-        <v>5395000</v>
+        <v>0</v>
       </c>
       <c r="G49" s="20">
         <f>MAX(y.over+(y.loss+y.effective-deduct2)-uloss,0)</f>
-        <v>5395000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="20">
         <f>MAX(y.over+(y.loss+y.effective-deduct2)-H47,0)</f>
-        <v>5398000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
@@ -1787,19 +1793,19 @@
       </c>
       <c r="C52" s="5">
         <f>$F52*C27/$F$27</f>
-        <v>100000</v>
+        <v>198837.47927031509</v>
       </c>
       <c r="D52" s="5">
         <f>$F52*D27/$F$27</f>
-        <v>200000</v>
+        <v>199829.18739635157</v>
       </c>
       <c r="E52" s="5">
         <f>$F52*E27/$F$27</f>
-        <v>300000</v>
+        <v>199333.33333333334</v>
       </c>
       <c r="F52" s="5">
         <f>F47</f>
-        <v>600000</v>
+        <v>598000</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
@@ -1831,6 +1837,11 @@
     <sortCondition ref="T4:T33"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C41:D41"/>
@@ -1838,11 +1849,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:E11" xr:uid="{4B63A890-17D6-4214-9736-B90756F63CBA}">
